--- a/Morosos/informe_cartas_y_juntas.xlsx
+++ b/Morosos/informe_cartas_y_juntas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="184">
   <si>
     <t>dia_cita</t>
   </si>
@@ -55,7 +55,7 @@
     <t>pensiones pendientes</t>
   </si>
   <si>
-    <t>14</t>
+    <t>29</t>
   </si>
   <si>
     <t>Noviembre</t>
@@ -64,7 +64,7 @@
     <t>Geovanny Callejas Acevedo</t>
   </si>
   <si>
-    <t>11 noviembre de 2025</t>
+    <t>21 noviembre de 2025</t>
   </si>
   <si>
     <t>Biblioteca</t>
@@ -79,9 +79,6 @@
     <t>Alonso Alvarez Valentina</t>
   </si>
   <si>
-    <t>Alvarez Castaño Santiago</t>
-  </si>
-  <si>
     <t>Aroca Aguirre Maria Celeste</t>
   </si>
   <si>
@@ -91,33 +88,18 @@
     <t>Arroyave Gonzalez Elisabet</t>
   </si>
   <si>
-    <t>Bohorquez Vera Ana Sofia</t>
-  </si>
-  <si>
     <t>Bohorquez Vera Juan Esteban</t>
   </si>
   <si>
-    <t>Cardona Mosquera Roxana</t>
-  </si>
-  <si>
     <t>Carmona Taborda Luciana</t>
   </si>
   <si>
-    <t>Clavijo Quiceno Sara</t>
-  </si>
-  <si>
     <t>Correa Castañeda Laura</t>
   </si>
   <si>
     <t>Cubillos Martinez Samuel</t>
   </si>
   <si>
-    <t>Diaz Gonzalez Matias</t>
-  </si>
-  <si>
-    <t>Duque Bermudez Juan Andres</t>
-  </si>
-  <si>
     <t>Echeverri Agudelo Samuel</t>
   </si>
   <si>
@@ -136,51 +118,18 @@
     <t>Garcia Ramirez Nicolas</t>
   </si>
   <si>
-    <t>Garcia Valencia Nicolas</t>
-  </si>
-  <si>
     <t>Garzon Moreno Cristian</t>
   </si>
   <si>
-    <t>Garzon Sanchez Matias</t>
-  </si>
-  <si>
-    <t>Giraldo Avendaño Samuel</t>
-  </si>
-  <si>
-    <t>Giraldo Lozano Emma</t>
-  </si>
-  <si>
     <t>Gomez Leon Mateo</t>
   </si>
   <si>
-    <t>Guette Ortiz Ashley Carolina</t>
-  </si>
-  <si>
-    <t>Guette Ortiz Norah Isabella</t>
-  </si>
-  <si>
-    <t>Jaramillo Agudelo Ana Sofia</t>
-  </si>
-  <si>
     <t>Jaramillo Carranza Camila</t>
   </si>
   <si>
-    <t>Jaramillo Carranza Santiago</t>
-  </si>
-  <si>
-    <t>Londoño Misas Emmanuel</t>
-  </si>
-  <si>
-    <t>Luna Higuita Matias</t>
-  </si>
-  <si>
     <t>Machado Taborda Mateo</t>
   </si>
   <si>
-    <t>Marin Correa Matias</t>
-  </si>
-  <si>
     <t>Marquez Mora Emilia</t>
   </si>
   <si>
@@ -190,15 +139,6 @@
     <t>Martinez Correa Tomas</t>
   </si>
   <si>
-    <t>Narvaez Martinez Samuel</t>
-  </si>
-  <si>
-    <t>Ortega Zabala Abigail</t>
-  </si>
-  <si>
-    <t>Ortega Zabala Heri Thomas</t>
-  </si>
-  <si>
     <t>Ospina Cifuentes Antonella</t>
   </si>
   <si>
@@ -226,9 +166,6 @@
     <t>Quintero Taborda Pablo</t>
   </si>
   <si>
-    <t>Rincon Mendoza Hulieth Gabriela</t>
-  </si>
-  <si>
     <t>Rojas Jimenez Sofia</t>
   </si>
   <si>
@@ -238,24 +175,12 @@
     <t>Ruiz Rodas Jacobo</t>
   </si>
   <si>
-    <t>Ruiz Urquijo Martin</t>
-  </si>
-  <si>
-    <t>Ruiz Urquijo Violeta</t>
-  </si>
-  <si>
     <t>Sanabria Cardona Santiago</t>
   </si>
   <si>
-    <t>Sanchez Bustamante Genesis</t>
-  </si>
-  <si>
     <t>Sanchez Justiniano Jose David</t>
   </si>
   <si>
-    <t>Sanchez Otalvaro Guadalupe</t>
-  </si>
-  <si>
     <t>Santos Paz Ezra Wolf</t>
   </si>
   <si>
@@ -265,12 +190,6 @@
     <t>Sayago Acevedo Samuel</t>
   </si>
   <si>
-    <t>Segura Rios Emmanuel David</t>
-  </si>
-  <si>
-    <t>Segura Rios Samuel Felipe</t>
-  </si>
-  <si>
     <t>Suarez Bayona Martina</t>
   </si>
   <si>
@@ -280,15 +199,9 @@
     <t>Troya Rendon Emanuel</t>
   </si>
   <si>
-    <t>Usma Jaramillo Luciana</t>
-  </si>
-  <si>
     <t>Usma Jaramillo Maria Celeste</t>
   </si>
   <si>
-    <t>Usuga Hidalgo Juan Sebastian</t>
-  </si>
-  <si>
     <t>Vanegas Pulgarin Sheray</t>
   </si>
   <si>
@@ -301,9 +214,6 @@
     <t>Vasquez Rodas Josue</t>
   </si>
   <si>
-    <t>Vasquez Rodas Juan Camilo</t>
-  </si>
-  <si>
     <t>Zambrano Mejia Mariangel</t>
   </si>
   <si>
@@ -316,9 +226,6 @@
     <t>1021926460</t>
   </si>
   <si>
-    <t>1025893767</t>
-  </si>
-  <si>
     <t>1027816986</t>
   </si>
   <si>
@@ -328,33 +235,18 @@
     <t>1020319550</t>
   </si>
   <si>
-    <t>1096702093</t>
-  </si>
-  <si>
     <t>1025897533</t>
   </si>
   <si>
-    <t>1013466654</t>
-  </si>
-  <si>
     <t>1033198814</t>
   </si>
   <si>
-    <t>1021935485</t>
-  </si>
-  <si>
     <t>1025659461</t>
   </si>
   <si>
     <t>1034994315</t>
   </si>
   <si>
-    <t>1021930204</t>
-  </si>
-  <si>
-    <t>1020313616</t>
-  </si>
-  <si>
     <t>1011515086</t>
   </si>
   <si>
@@ -373,51 +265,18 @@
     <t>1013353521</t>
   </si>
   <si>
-    <t>1023655377</t>
-  </si>
-  <si>
     <t>1020227383</t>
   </si>
   <si>
-    <t>1023527637</t>
-  </si>
-  <si>
-    <t>1037888238</t>
-  </si>
-  <si>
-    <t>1011517846</t>
-  </si>
-  <si>
     <t>1054882046</t>
   </si>
   <si>
-    <t>1042587012</t>
-  </si>
-  <si>
-    <t>1018269052</t>
-  </si>
-  <si>
-    <t>1041634370</t>
-  </si>
-  <si>
     <t>1018258929</t>
   </si>
   <si>
-    <t>1018248468</t>
-  </si>
-  <si>
-    <t>1017209533</t>
-  </si>
-  <si>
-    <t>1011513429</t>
-  </si>
-  <si>
     <t>1021931357</t>
   </si>
   <si>
-    <t>1017938288</t>
-  </si>
-  <si>
     <t>1192469448</t>
   </si>
   <si>
@@ -427,15 +286,6 @@
     <t>1020225476</t>
   </si>
   <si>
-    <t>1029301914</t>
-  </si>
-  <si>
-    <t>1011518615</t>
-  </si>
-  <si>
-    <t>1093600920</t>
-  </si>
-  <si>
     <t>1011518603</t>
   </si>
   <si>
@@ -463,9 +313,6 @@
     <t>1021928865</t>
   </si>
   <si>
-    <t>1129244633</t>
-  </si>
-  <si>
     <t>1021941636</t>
   </si>
   <si>
@@ -475,24 +322,12 @@
     <t>1015075125</t>
   </si>
   <si>
-    <t>1025663772</t>
-  </si>
-  <si>
-    <t>1031943917</t>
-  </si>
-  <si>
     <t>1035008500</t>
   </si>
   <si>
-    <t>1011404208</t>
-  </si>
-  <si>
     <t>1025904957</t>
   </si>
   <si>
-    <t>1020231885</t>
-  </si>
-  <si>
     <t>1037676515</t>
   </si>
   <si>
@@ -502,12 +337,6 @@
     <t>1018254757</t>
   </si>
   <si>
-    <t>1141722491</t>
-  </si>
-  <si>
-    <t>1141719278</t>
-  </si>
-  <si>
     <t>1011106856</t>
   </si>
   <si>
@@ -517,15 +346,9 @@
     <t>1025667898</t>
   </si>
   <si>
-    <t>1033184220</t>
-  </si>
-  <si>
     <t>1033200952</t>
   </si>
   <si>
-    <t>1033190800</t>
-  </si>
-  <si>
     <t>1034925183</t>
   </si>
   <si>
@@ -538,9 +361,6 @@
     <t>1034924450</t>
   </si>
   <si>
-    <t>1017933562</t>
-  </si>
-  <si>
     <t>1023655274</t>
   </si>
   <si>
@@ -553,9 +373,6 @@
     <t>Alvarez Ortiz Gladyss Patricia</t>
   </si>
   <si>
-    <t>Alvarez Maldonado Ricardo Leon</t>
-  </si>
-  <si>
     <t>Aguirre Castro Maria Paulina</t>
   </si>
   <si>
@@ -565,27 +382,15 @@
     <t>Bohorquez Almeida Cristian</t>
   </si>
   <si>
-    <t>Mosquera Rodriguez Tania Karina</t>
-  </si>
-  <si>
     <t>Correa Claudia Patricia</t>
   </si>
   <si>
-    <t>Carreño Bohorquez Nora Maria</t>
-  </si>
-  <si>
     <t>Correa Correa Mauricio</t>
   </si>
   <si>
     <t>Cubillos Valencia Fabio</t>
   </si>
   <si>
-    <t>Diaz Rico John Edwin</t>
-  </si>
-  <si>
-    <t>Duque Botero Johnny Yesid</t>
-  </si>
-  <si>
     <t>Echeverry Agudelo Sara Catalina</t>
   </si>
   <si>
@@ -601,45 +406,18 @@
     <t>Ramirez Suarez Leidy Tatiana</t>
   </si>
   <si>
-    <t>Valencia Gonzalez Leydy Vanessa</t>
-  </si>
-  <si>
     <t>Garzon Prieto Nelson Fidel</t>
   </si>
   <si>
-    <t>Garzon Oscar Javier</t>
-  </si>
-  <si>
-    <t>Avendaño Tamayo Yudi Patricia</t>
-  </si>
-  <si>
-    <t>Lozano Mosquera Mariam</t>
-  </si>
-  <si>
     <t>Gomez Serna Daniel</t>
   </si>
   <si>
-    <t>Ortiz Julio Sirly Dayana</t>
-  </si>
-  <si>
-    <t>Agudelo Torres Sumilde Elena</t>
-  </si>
-  <si>
     <t>Carranza Ricardo Diana Marcela</t>
   </si>
   <si>
-    <t>Misas Agudelo Francy Eunice</t>
-  </si>
-  <si>
-    <t>Luna Berrio Sergio Alberto</t>
-  </si>
-  <si>
     <t>Sas Inversiones Myt</t>
   </si>
   <si>
-    <t>Correa Arboleda Ana Maria</t>
-  </si>
-  <si>
     <t>Mora Cardona Katherine</t>
   </si>
   <si>
@@ -649,12 +427,6 @@
     <t>Correa Mejia Catalina</t>
   </si>
   <si>
-    <t>Martinez Florez Yerlys Sadit</t>
-  </si>
-  <si>
-    <t>Zabala Cuervo Diana Rocio</t>
-  </si>
-  <si>
     <t>Ospina Escobar Nilson James</t>
   </si>
   <si>
@@ -679,9 +451,6 @@
     <t>Quintero Clavijo Jader Elias</t>
   </si>
   <si>
-    <t>Rincón Juez Esteban</t>
-  </si>
-  <si>
     <t>Alvarez Betancur Rubiela</t>
   </si>
   <si>
@@ -691,21 +460,12 @@
     <t>Rodas Marin Monica Janeth</t>
   </si>
   <si>
-    <t>Ruiz Cardona Pablo Andres</t>
-  </si>
-  <si>
     <t>Sanabria Ballen Andres Leonardo</t>
   </si>
   <si>
-    <t>Sanchez Lopez Giovanny Arley</t>
-  </si>
-  <si>
     <t>Sanchez Justiniano Martha Catherine</t>
   </si>
   <si>
-    <t>Sanchez Agudelo Uber Herney</t>
-  </si>
-  <si>
     <t>Santos Lopez Sebastian</t>
   </si>
   <si>
@@ -715,9 +475,6 @@
     <t>Acevedo Galeano Viviana</t>
   </si>
   <si>
-    <t>Segura Camacho Oscar Dario</t>
-  </si>
-  <si>
     <t>Bayona Buitrago Sandra Milena</t>
   </si>
   <si>
@@ -730,9 +487,6 @@
     <t>Usma Acevedo Elkin Humberto</t>
   </si>
   <si>
-    <t>Usuga Sepulveda Henrry</t>
-  </si>
-  <si>
     <t>Pulgarin Zuluaga Ana Maria</t>
   </si>
   <si>
@@ -778,31 +532,31 @@
     <t>SEXTO</t>
   </si>
   <si>
+    <t>DÉCIMO</t>
+  </si>
+  <si>
     <t>TERCERO</t>
   </si>
   <si>
-    <t>DÉCIMO</t>
-  </si>
-  <si>
     <t>Febrero - Marzo - Abril - Mayo - Junio - Julio - Agosto - Septiembre - Octubre - Noviembre</t>
   </si>
   <si>
     <t>Octubre - Noviembre</t>
   </si>
   <si>
+    <t>Abril - Mayo - Junio - Julio - Agosto - Septiembre - Octubre - Noviembre</t>
+  </si>
+  <si>
+    <t>Agosto - Septiembre - Octubre - Noviembre</t>
+  </si>
+  <si>
+    <t>Mayo - Junio - Julio - Agosto - Septiembre - Octubre - Noviembre</t>
+  </si>
+  <si>
+    <t>Julio - Agosto - Septiembre - Octubre - Noviembre</t>
+  </si>
+  <si>
     <t>Septiembre - Octubre - Noviembre</t>
-  </si>
-  <si>
-    <t>Abril - Mayo - Junio - Julio - Agosto - Septiembre - Octubre - Noviembre</t>
-  </si>
-  <si>
-    <t>Agosto - Septiembre - Octubre - Noviembre</t>
-  </si>
-  <si>
-    <t>Mayo - Junio - Julio - Agosto - Septiembre - Octubre - Noviembre</t>
-  </si>
-  <si>
-    <t>Julio - Agosto - Septiembre - Octubre - Noviembre</t>
   </si>
   <si>
     <t>Febrero - Marzo - Abril - Mayo</t>
@@ -1169,7 +923,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M80"/>
+  <dimension ref="A1:M50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1242,19 +996,19 @@
         <v>19</v>
       </c>
       <c r="I2" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="J2" t="s">
-        <v>177</v>
+        <v>117</v>
       </c>
       <c r="K2" t="s">
-        <v>245</v>
+        <v>163</v>
       </c>
       <c r="L2">
         <v>5456470</v>
       </c>
       <c r="M2" t="s">
-        <v>256</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1283,19 +1037,19 @@
         <v>20</v>
       </c>
       <c r="I3" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="J3" t="s">
-        <v>178</v>
+        <v>118</v>
       </c>
       <c r="K3" t="s">
-        <v>246</v>
+        <v>164</v>
       </c>
       <c r="L3">
         <v>855430</v>
       </c>
       <c r="M3" t="s">
-        <v>257</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1324,19 +1078,19 @@
         <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="J4" t="s">
-        <v>179</v>
+        <v>119</v>
       </c>
       <c r="K4" t="s">
-        <v>246</v>
+        <v>165</v>
       </c>
       <c r="L4">
-        <v>856086</v>
+        <v>917784</v>
       </c>
       <c r="M4" t="s">
-        <v>257</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1365,19 +1119,19 @@
         <v>22</v>
       </c>
       <c r="I5" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s">
-        <v>180</v>
+        <v>119</v>
       </c>
       <c r="K5" t="s">
-        <v>247</v>
+        <v>166</v>
       </c>
       <c r="L5">
-        <v>917784</v>
+        <v>981908</v>
       </c>
       <c r="M5" t="s">
-        <v>257</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1406,19 +1160,19 @@
         <v>23</v>
       </c>
       <c r="I6" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="J6" t="s">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="K6" t="s">
-        <v>248</v>
+        <v>166</v>
       </c>
       <c r="L6">
-        <v>981908</v>
+        <v>1113788</v>
       </c>
       <c r="M6" t="s">
-        <v>257</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1447,19 +1201,19 @@
         <v>24</v>
       </c>
       <c r="I7" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="J7" t="s">
-        <v>181</v>
+        <v>121</v>
       </c>
       <c r="K7" t="s">
-        <v>248</v>
+        <v>167</v>
       </c>
       <c r="L7">
-        <v>1113788</v>
+        <v>1122974</v>
       </c>
       <c r="M7" t="s">
-        <v>257</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1488,19 +1242,19 @@
         <v>25</v>
       </c>
       <c r="I8" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="J8" t="s">
-        <v>182</v>
+        <v>122</v>
       </c>
       <c r="K8" t="s">
-        <v>246</v>
+        <v>168</v>
       </c>
       <c r="L8">
-        <v>963692</v>
+        <v>4054726</v>
       </c>
       <c r="M8" t="s">
-        <v>257</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1529,19 +1283,19 @@
         <v>26</v>
       </c>
       <c r="I9" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="J9" t="s">
-        <v>182</v>
+        <v>123</v>
       </c>
       <c r="K9" t="s">
-        <v>249</v>
+        <v>169</v>
       </c>
       <c r="L9">
-        <v>1687461</v>
+        <v>997283</v>
       </c>
       <c r="M9" t="s">
-        <v>258</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1570,19 +1324,19 @@
         <v>27</v>
       </c>
       <c r="I10" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="J10" t="s">
-        <v>183</v>
+        <v>124</v>
       </c>
       <c r="K10" t="s">
-        <v>247</v>
+        <v>164</v>
       </c>
       <c r="L10">
-        <v>1106608</v>
+        <v>963692</v>
       </c>
       <c r="M10" t="s">
-        <v>258</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1611,19 +1365,19 @@
         <v>28</v>
       </c>
       <c r="I11" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="J11" t="s">
-        <v>184</v>
+        <v>125</v>
       </c>
       <c r="K11" t="s">
-        <v>250</v>
+        <v>169</v>
       </c>
       <c r="L11">
-        <v>4054726</v>
+        <v>2148095</v>
       </c>
       <c r="M11" t="s">
-        <v>259</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1652,19 +1406,19 @@
         <v>29</v>
       </c>
       <c r="I12" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="J12" t="s">
-        <v>185</v>
+        <v>126</v>
       </c>
       <c r="K12" t="s">
-        <v>248</v>
+        <v>170</v>
       </c>
       <c r="L12">
-        <v>1179728</v>
+        <v>3452390</v>
       </c>
       <c r="M12" t="s">
-        <v>257</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1693,19 +1447,19 @@
         <v>30</v>
       </c>
       <c r="I13" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="J13" t="s">
-        <v>186</v>
+        <v>126</v>
       </c>
       <c r="K13" t="s">
-        <v>251</v>
+        <v>171</v>
       </c>
       <c r="L13">
-        <v>997283</v>
+        <v>3882851</v>
       </c>
       <c r="M13" t="s">
-        <v>257</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1734,19 +1488,19 @@
         <v>31</v>
       </c>
       <c r="I14" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="J14" t="s">
-        <v>187</v>
+        <v>127</v>
       </c>
       <c r="K14" t="s">
-        <v>246</v>
+        <v>168</v>
       </c>
       <c r="L14">
-        <v>963692</v>
+        <v>804948</v>
       </c>
       <c r="M14" t="s">
-        <v>257</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1775,19 +1529,19 @@
         <v>32</v>
       </c>
       <c r="I15" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="J15" t="s">
-        <v>188</v>
+        <v>128</v>
       </c>
       <c r="K15" t="s">
-        <v>251</v>
+        <v>167</v>
       </c>
       <c r="L15">
-        <v>1429005</v>
+        <v>2508680</v>
       </c>
       <c r="M15" t="s">
-        <v>258</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1816,19 +1570,19 @@
         <v>33</v>
       </c>
       <c r="I16" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="J16" t="s">
-        <v>189</v>
+        <v>129</v>
       </c>
       <c r="K16" t="s">
-        <v>249</v>
+        <v>166</v>
       </c>
       <c r="L16">
-        <v>1060224</v>
+        <v>1276240</v>
       </c>
       <c r="M16" t="s">
-        <v>257</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1857,19 +1611,19 @@
         <v>34</v>
       </c>
       <c r="I17" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="J17" t="s">
-        <v>190</v>
+        <v>130</v>
       </c>
       <c r="K17" t="s">
-        <v>251</v>
+        <v>170</v>
       </c>
       <c r="L17">
-        <v>2148095</v>
+        <v>1896588</v>
       </c>
       <c r="M17" t="s">
-        <v>260</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1898,19 +1652,19 @@
         <v>35</v>
       </c>
       <c r="I18" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="J18" t="s">
-        <v>191</v>
+        <v>131</v>
       </c>
       <c r="K18" t="s">
-        <v>252</v>
+        <v>171</v>
       </c>
       <c r="L18">
-        <v>3452390</v>
+        <v>2254772</v>
       </c>
       <c r="M18" t="s">
-        <v>261</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1939,19 +1693,19 @@
         <v>36</v>
       </c>
       <c r="I19" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="J19" t="s">
-        <v>191</v>
+        <v>132</v>
       </c>
       <c r="K19" t="s">
-        <v>253</v>
+        <v>166</v>
       </c>
       <c r="L19">
-        <v>3882851</v>
+        <v>1041848</v>
       </c>
       <c r="M19" t="s">
-        <v>261</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1980,19 +1734,19 @@
         <v>37</v>
       </c>
       <c r="I20" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="J20" t="s">
-        <v>192</v>
+        <v>133</v>
       </c>
       <c r="K20" t="s">
-        <v>250</v>
+        <v>170</v>
       </c>
       <c r="L20">
-        <v>804948</v>
+        <v>1062660</v>
       </c>
       <c r="M20" t="s">
-        <v>257</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -2021,19 +1775,19 @@
         <v>38</v>
       </c>
       <c r="I21" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="J21" t="s">
-        <v>193</v>
+        <v>134</v>
       </c>
       <c r="K21" t="s">
-        <v>249</v>
+        <v>165</v>
       </c>
       <c r="L21">
-        <v>2508680</v>
+        <v>1472088</v>
       </c>
       <c r="M21" t="s">
-        <v>262</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -2062,19 +1816,19 @@
         <v>39</v>
       </c>
       <c r="I22" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="J22" t="s">
-        <v>194</v>
+        <v>135</v>
       </c>
       <c r="K22" t="s">
-        <v>248</v>
+        <v>171</v>
       </c>
       <c r="L22">
-        <v>1426240</v>
+        <v>1164470</v>
       </c>
       <c r="M22" t="s">
-        <v>258</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -2103,19 +1857,19 @@
         <v>40</v>
       </c>
       <c r="I23" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="J23" t="s">
-        <v>195</v>
+        <v>136</v>
       </c>
       <c r="K23" t="s">
-        <v>245</v>
+        <v>172</v>
       </c>
       <c r="L23">
-        <v>1259932</v>
+        <v>947650</v>
       </c>
       <c r="M23" t="s">
-        <v>257</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -2144,19 +1898,19 @@
         <v>41</v>
       </c>
       <c r="I24" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="J24" t="s">
-        <v>196</v>
+        <v>137</v>
       </c>
       <c r="K24" t="s">
-        <v>252</v>
+        <v>173</v>
       </c>
       <c r="L24">
-        <v>1896588</v>
+        <v>3020840</v>
       </c>
       <c r="M24" t="s">
-        <v>260</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -2185,19 +1939,19 @@
         <v>42</v>
       </c>
       <c r="I25" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="J25" t="s">
-        <v>197</v>
+        <v>138</v>
       </c>
       <c r="K25" t="s">
-        <v>246</v>
+        <v>168</v>
       </c>
       <c r="L25">
-        <v>907888</v>
+        <v>1152417</v>
       </c>
       <c r="M25" t="s">
-        <v>257</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -2226,19 +1980,19 @@
         <v>43</v>
       </c>
       <c r="I26" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="J26" t="s">
-        <v>198</v>
+        <v>139</v>
       </c>
       <c r="K26" t="s">
-        <v>254</v>
+        <v>168</v>
       </c>
       <c r="L26">
-        <v>2234789</v>
+        <v>1290024</v>
       </c>
       <c r="M26" t="s">
-        <v>260</v>
+        <v>175</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -2267,19 +2021,19 @@
         <v>44</v>
       </c>
       <c r="I27" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="J27" t="s">
-        <v>199</v>
+        <v>140</v>
       </c>
       <c r="K27" t="s">
-        <v>250</v>
+        <v>163</v>
       </c>
       <c r="L27">
-        <v>1757139</v>
+        <v>1780941</v>
       </c>
       <c r="M27" t="s">
-        <v>260</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -2308,19 +2062,19 @@
         <v>45</v>
       </c>
       <c r="I28" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="J28" t="s">
-        <v>200</v>
+        <v>141</v>
       </c>
       <c r="K28" t="s">
-        <v>253</v>
+        <v>167</v>
       </c>
       <c r="L28">
-        <v>2254772</v>
+        <v>1945360</v>
       </c>
       <c r="M28" t="s">
-        <v>263</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -2349,19 +2103,19 @@
         <v>46</v>
       </c>
       <c r="I29" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="J29" t="s">
-        <v>201</v>
+        <v>142</v>
       </c>
       <c r="K29" t="s">
-        <v>255</v>
+        <v>164</v>
       </c>
       <c r="L29">
-        <v>952930</v>
+        <v>859330</v>
       </c>
       <c r="M29" t="s">
-        <v>257</v>
+        <v>180</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -2390,19 +2144,19 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
       <c r="J30" t="s">
-        <v>201</v>
+        <v>143</v>
       </c>
       <c r="K30" t="s">
-        <v>245</v>
+        <v>163</v>
       </c>
       <c r="L30">
-        <v>1259932</v>
+        <v>2701144</v>
       </c>
       <c r="M30" t="s">
-        <v>257</v>
+        <v>182</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -2431,19 +2185,19 @@
         <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
       <c r="J31" t="s">
-        <v>202</v>
+        <v>144</v>
       </c>
       <c r="K31" t="s">
-        <v>251</v>
+        <v>167</v>
       </c>
       <c r="L31">
-        <v>945350</v>
+        <v>997472</v>
       </c>
       <c r="M31" t="s">
-        <v>257</v>
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -2472,19 +2226,19 @@
         <v>49</v>
       </c>
       <c r="I32" t="s">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="J32" t="s">
-        <v>203</v>
+        <v>144</v>
       </c>
       <c r="K32" t="s">
-        <v>248</v>
+        <v>169</v>
       </c>
       <c r="L32">
-        <v>1041848</v>
+        <v>856204</v>
       </c>
       <c r="M32" t="s">
-        <v>257</v>
+        <v>175</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -2513,19 +2267,19 @@
         <v>50</v>
       </c>
       <c r="I33" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="J33" t="s">
-        <v>203</v>
+        <v>145</v>
       </c>
       <c r="K33" t="s">
-        <v>255</v>
+        <v>173</v>
       </c>
       <c r="L33">
-        <v>890566</v>
+        <v>1278590</v>
       </c>
       <c r="M33" t="s">
-        <v>257</v>
+        <v>175</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -2554,19 +2308,19 @@
         <v>51</v>
       </c>
       <c r="I34" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="J34" t="s">
-        <v>204</v>
+        <v>146</v>
       </c>
       <c r="K34" t="s">
-        <v>251</v>
+        <v>172</v>
       </c>
       <c r="L34">
-        <v>890300</v>
+        <v>2074650</v>
       </c>
       <c r="M34" t="s">
-        <v>257</v>
+        <v>179</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -2595,19 +2349,19 @@
         <v>52</v>
       </c>
       <c r="I35" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="J35" t="s">
-        <v>205</v>
+        <v>147</v>
       </c>
       <c r="K35" t="s">
-        <v>246</v>
+        <v>172</v>
       </c>
       <c r="L35">
-        <v>808330</v>
+        <v>1513860</v>
       </c>
       <c r="M35" t="s">
-        <v>257</v>
+        <v>177</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -2636,19 +2390,19 @@
         <v>53</v>
       </c>
       <c r="I36" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="J36" t="s">
-        <v>206</v>
+        <v>148</v>
       </c>
       <c r="K36" t="s">
-        <v>252</v>
+        <v>173</v>
       </c>
       <c r="L36">
-        <v>1062660</v>
+        <v>1279090</v>
       </c>
       <c r="M36" t="s">
-        <v>257</v>
+        <v>175</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -2677,19 +2431,19 @@
         <v>54</v>
       </c>
       <c r="I37" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="J37" t="s">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="K37" t="s">
-        <v>253</v>
+        <v>163</v>
       </c>
       <c r="L37">
-        <v>1094930</v>
+        <v>2371470</v>
       </c>
       <c r="M37" t="s">
-        <v>257</v>
+        <v>177</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -2718,19 +2472,19 @@
         <v>55</v>
       </c>
       <c r="I38" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="J38" t="s">
-        <v>208</v>
+        <v>150</v>
       </c>
       <c r="K38" t="s">
-        <v>247</v>
+        <v>165</v>
       </c>
       <c r="L38">
-        <v>1472088</v>
+        <v>1192214</v>
       </c>
       <c r="M38" t="s">
-        <v>258</v>
+        <v>183</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -2759,19 +2513,19 @@
         <v>56</v>
       </c>
       <c r="I39" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="J39" t="s">
-        <v>209</v>
+        <v>151</v>
       </c>
       <c r="K39" t="s">
-        <v>253</v>
+        <v>165</v>
       </c>
       <c r="L39">
-        <v>1164470</v>
+        <v>3534736</v>
       </c>
       <c r="M39" t="s">
-        <v>257</v>
+        <v>178</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -2800,19 +2554,19 @@
         <v>57</v>
       </c>
       <c r="I40" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="J40" t="s">
-        <v>210</v>
+        <v>152</v>
       </c>
       <c r="K40" t="s">
-        <v>255</v>
+        <v>167</v>
       </c>
       <c r="L40">
-        <v>947650</v>
+        <v>5694870</v>
       </c>
       <c r="M40" t="s">
-        <v>257</v>
+        <v>174</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -2841,19 +2595,19 @@
         <v>58</v>
       </c>
       <c r="I41" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="J41" t="s">
-        <v>211</v>
+        <v>153</v>
       </c>
       <c r="K41" t="s">
-        <v>253</v>
+        <v>171</v>
       </c>
       <c r="L41">
-        <v>1034304</v>
+        <v>1095930</v>
       </c>
       <c r="M41" t="s">
-        <v>257</v>
+        <v>175</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -2882,19 +2636,19 @@
         <v>59</v>
       </c>
       <c r="I42" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="J42" t="s">
-        <v>212</v>
+        <v>154</v>
       </c>
       <c r="K42" t="s">
-        <v>254</v>
+        <v>168</v>
       </c>
       <c r="L42">
-        <v>1205330</v>
+        <v>2698565</v>
       </c>
       <c r="M42" t="s">
-        <v>257</v>
+        <v>179</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -2923,19 +2677,19 @@
         <v>60</v>
       </c>
       <c r="I43" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="J43" t="s">
-        <v>212</v>
+        <v>155</v>
       </c>
       <c r="K43" t="s">
-        <v>251</v>
+        <v>167</v>
       </c>
       <c r="L43">
-        <v>1010300</v>
+        <v>1405060</v>
       </c>
       <c r="M43" t="s">
-        <v>257</v>
+        <v>180</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -2964,19 +2718,19 @@
         <v>61</v>
       </c>
       <c r="I44" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="J44" t="s">
-        <v>213</v>
+        <v>156</v>
       </c>
       <c r="K44" t="s">
-        <v>254</v>
+        <v>173</v>
       </c>
       <c r="L44">
-        <v>3020840</v>
+        <v>1136514</v>
       </c>
       <c r="M44" t="s">
-        <v>262</v>
+        <v>175</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -3005,19 +2759,19 @@
         <v>62</v>
       </c>
       <c r="I45" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="J45" t="s">
-        <v>214</v>
+        <v>157</v>
       </c>
       <c r="K45" t="s">
-        <v>250</v>
+        <v>168</v>
       </c>
       <c r="L45">
-        <v>1152417</v>
+        <v>2177948</v>
       </c>
       <c r="M45" t="s">
-        <v>257</v>
+        <v>177</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -3046,19 +2800,19 @@
         <v>63</v>
       </c>
       <c r="I46" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="J46" t="s">
-        <v>215</v>
+        <v>158</v>
       </c>
       <c r="K46" t="s">
-        <v>250</v>
+        <v>164</v>
       </c>
       <c r="L46">
-        <v>1290024</v>
+        <v>963692</v>
       </c>
       <c r="M46" t="s">
-        <v>257</v>
+        <v>175</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -3087,19 +2841,19 @@
         <v>64</v>
       </c>
       <c r="I47" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="J47" t="s">
-        <v>216</v>
+        <v>159</v>
       </c>
       <c r="K47" t="s">
-        <v>245</v>
+        <v>169</v>
       </c>
       <c r="L47">
-        <v>2978235</v>
+        <v>1900010</v>
       </c>
       <c r="M47" t="s">
-        <v>262</v>
+        <v>177</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -3128,19 +2882,19 @@
         <v>65</v>
       </c>
       <c r="I48" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="J48" t="s">
-        <v>217</v>
+        <v>160</v>
       </c>
       <c r="K48" t="s">
-        <v>249</v>
+        <v>166</v>
       </c>
       <c r="L48">
-        <v>1945360</v>
+        <v>1111364</v>
       </c>
       <c r="M48" t="s">
-        <v>260</v>
+        <v>175</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -3169,19 +2923,19 @@
         <v>66</v>
       </c>
       <c r="I49" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="J49" t="s">
-        <v>218</v>
+        <v>161</v>
       </c>
       <c r="K49" t="s">
-        <v>246</v>
+        <v>163</v>
       </c>
       <c r="L49">
-        <v>859330</v>
+        <v>2378588</v>
       </c>
       <c r="M49" t="s">
-        <v>258</v>
+        <v>177</v>
       </c>
     </row>
     <row r="50" spans="1:13">
@@ -3210,1249 +2964,19 @@
         <v>67</v>
       </c>
       <c r="I50" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="J50" t="s">
-        <v>219</v>
+        <v>162</v>
       </c>
       <c r="K50" t="s">
-        <v>245</v>
+        <v>165</v>
       </c>
       <c r="L50">
-        <v>2701144</v>
+        <v>1040000</v>
       </c>
       <c r="M50" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
-      <c r="A51" t="s">
-        <v>13</v>
-      </c>
-      <c r="B51" t="s">
-        <v>14</v>
-      </c>
-      <c r="C51">
-        <v>2025</v>
-      </c>
-      <c r="D51" t="s">
-        <v>15</v>
-      </c>
-      <c r="E51" t="s">
-        <v>16</v>
-      </c>
-      <c r="F51" t="s">
-        <v>17</v>
-      </c>
-      <c r="G51" t="s">
-        <v>18</v>
-      </c>
-      <c r="H51" t="s">
-        <v>68</v>
-      </c>
-      <c r="I51" t="s">
-        <v>147</v>
-      </c>
-      <c r="J51" t="s">
-        <v>220</v>
-      </c>
-      <c r="K51" t="s">
-        <v>249</v>
-      </c>
-      <c r="L51">
-        <v>997472</v>
-      </c>
-      <c r="M51" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
-      <c r="A52" t="s">
-        <v>13</v>
-      </c>
-      <c r="B52" t="s">
-        <v>14</v>
-      </c>
-      <c r="C52">
-        <v>2025</v>
-      </c>
-      <c r="D52" t="s">
-        <v>15</v>
-      </c>
-      <c r="E52" t="s">
-        <v>16</v>
-      </c>
-      <c r="F52" t="s">
-        <v>17</v>
-      </c>
-      <c r="G52" t="s">
-        <v>18</v>
-      </c>
-      <c r="H52" t="s">
-        <v>69</v>
-      </c>
-      <c r="I52" t="s">
-        <v>148</v>
-      </c>
-      <c r="J52" t="s">
-        <v>220</v>
-      </c>
-      <c r="K52" t="s">
-        <v>251</v>
-      </c>
-      <c r="L52">
-        <v>856204</v>
-      </c>
-      <c r="M52" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
-      <c r="A53" t="s">
-        <v>13</v>
-      </c>
-      <c r="B53" t="s">
-        <v>14</v>
-      </c>
-      <c r="C53">
-        <v>2025</v>
-      </c>
-      <c r="D53" t="s">
-        <v>15</v>
-      </c>
-      <c r="E53" t="s">
-        <v>16</v>
-      </c>
-      <c r="F53" t="s">
-        <v>17</v>
-      </c>
-      <c r="G53" t="s">
-        <v>18</v>
-      </c>
-      <c r="H53" t="s">
-        <v>70</v>
-      </c>
-      <c r="I53" t="s">
-        <v>149</v>
-      </c>
-      <c r="J53" t="s">
-        <v>221</v>
-      </c>
-      <c r="K53" t="s">
-        <v>251</v>
-      </c>
-      <c r="L53">
-        <v>856204</v>
-      </c>
-      <c r="M53" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
-      <c r="A54" t="s">
-        <v>13</v>
-      </c>
-      <c r="B54" t="s">
-        <v>14</v>
-      </c>
-      <c r="C54">
-        <v>2025</v>
-      </c>
-      <c r="D54" t="s">
-        <v>15</v>
-      </c>
-      <c r="E54" t="s">
-        <v>16</v>
-      </c>
-      <c r="F54" t="s">
-        <v>17</v>
-      </c>
-      <c r="G54" t="s">
-        <v>18</v>
-      </c>
-      <c r="H54" t="s">
-        <v>71</v>
-      </c>
-      <c r="I54" t="s">
-        <v>150</v>
-      </c>
-      <c r="J54" t="s">
-        <v>222</v>
-      </c>
-      <c r="K54" t="s">
-        <v>254</v>
-      </c>
-      <c r="L54">
-        <v>1278590</v>
-      </c>
-      <c r="M54" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
-      <c r="A55" t="s">
-        <v>13</v>
-      </c>
-      <c r="B55" t="s">
-        <v>14</v>
-      </c>
-      <c r="C55">
-        <v>2025</v>
-      </c>
-      <c r="D55" t="s">
-        <v>15</v>
-      </c>
-      <c r="E55" t="s">
-        <v>16</v>
-      </c>
-      <c r="F55" t="s">
-        <v>17</v>
-      </c>
-      <c r="G55" t="s">
-        <v>18</v>
-      </c>
-      <c r="H55" t="s">
-        <v>72</v>
-      </c>
-      <c r="I55" t="s">
-        <v>151</v>
-      </c>
-      <c r="J55" t="s">
-        <v>223</v>
-      </c>
-      <c r="K55" t="s">
-        <v>255</v>
-      </c>
-      <c r="L55">
-        <v>2074650</v>
-      </c>
-      <c r="M55" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
-      <c r="A56" t="s">
-        <v>13</v>
-      </c>
-      <c r="B56" t="s">
-        <v>14</v>
-      </c>
-      <c r="C56">
-        <v>2025</v>
-      </c>
-      <c r="D56" t="s">
-        <v>15</v>
-      </c>
-      <c r="E56" t="s">
-        <v>16</v>
-      </c>
-      <c r="F56" t="s">
-        <v>17</v>
-      </c>
-      <c r="G56" t="s">
-        <v>18</v>
-      </c>
-      <c r="H56" t="s">
-        <v>73</v>
-      </c>
-      <c r="I56" t="s">
-        <v>152</v>
-      </c>
-      <c r="J56" t="s">
-        <v>224</v>
-      </c>
-      <c r="K56" t="s">
-        <v>255</v>
-      </c>
-      <c r="L56">
-        <v>1913860</v>
-      </c>
-      <c r="M56" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
-      <c r="A57" t="s">
-        <v>13</v>
-      </c>
-      <c r="B57" t="s">
-        <v>14</v>
-      </c>
-      <c r="C57">
-        <v>2025</v>
-      </c>
-      <c r="D57" t="s">
-        <v>15</v>
-      </c>
-      <c r="E57" t="s">
-        <v>16</v>
-      </c>
-      <c r="F57" t="s">
-        <v>17</v>
-      </c>
-      <c r="G57" t="s">
-        <v>18</v>
-      </c>
-      <c r="H57" t="s">
-        <v>74</v>
-      </c>
-      <c r="I57" t="s">
-        <v>153</v>
-      </c>
-      <c r="J57" t="s">
-        <v>225</v>
-      </c>
-      <c r="K57" t="s">
-        <v>252</v>
-      </c>
-      <c r="L57">
-        <v>1063064</v>
-      </c>
-      <c r="M57" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
-      <c r="A58" t="s">
-        <v>13</v>
-      </c>
-      <c r="B58" t="s">
-        <v>14</v>
-      </c>
-      <c r="C58">
-        <v>2025</v>
-      </c>
-      <c r="D58" t="s">
-        <v>15</v>
-      </c>
-      <c r="E58" t="s">
-        <v>16</v>
-      </c>
-      <c r="F58" t="s">
-        <v>17</v>
-      </c>
-      <c r="G58" t="s">
-        <v>18</v>
-      </c>
-      <c r="H58" t="s">
-        <v>75</v>
-      </c>
-      <c r="I58" t="s">
-        <v>154</v>
-      </c>
-      <c r="J58" t="s">
-        <v>225</v>
-      </c>
-      <c r="K58" t="s">
-        <v>247</v>
-      </c>
-      <c r="L58">
-        <v>1102608</v>
-      </c>
-      <c r="M58" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13">
-      <c r="A59" t="s">
-        <v>13</v>
-      </c>
-      <c r="B59" t="s">
-        <v>14</v>
-      </c>
-      <c r="C59">
-        <v>2025</v>
-      </c>
-      <c r="D59" t="s">
-        <v>15</v>
-      </c>
-      <c r="E59" t="s">
-        <v>16</v>
-      </c>
-      <c r="F59" t="s">
-        <v>17</v>
-      </c>
-      <c r="G59" t="s">
-        <v>18</v>
-      </c>
-      <c r="H59" t="s">
-        <v>76</v>
-      </c>
-      <c r="I59" t="s">
-        <v>155</v>
-      </c>
-      <c r="J59" t="s">
-        <v>226</v>
-      </c>
-      <c r="K59" t="s">
-        <v>254</v>
-      </c>
-      <c r="L59">
-        <v>1279090</v>
-      </c>
-      <c r="M59" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
-      <c r="A60" t="s">
-        <v>13</v>
-      </c>
-      <c r="B60" t="s">
-        <v>14</v>
-      </c>
-      <c r="C60">
-        <v>2025</v>
-      </c>
-      <c r="D60" t="s">
-        <v>15</v>
-      </c>
-      <c r="E60" t="s">
-        <v>16</v>
-      </c>
-      <c r="F60" t="s">
-        <v>17</v>
-      </c>
-      <c r="G60" t="s">
-        <v>18</v>
-      </c>
-      <c r="H60" t="s">
-        <v>77</v>
-      </c>
-      <c r="I60" t="s">
-        <v>156</v>
-      </c>
-      <c r="J60" t="s">
-        <v>227</v>
-      </c>
-      <c r="K60" t="s">
-        <v>252</v>
-      </c>
-      <c r="L60">
-        <v>998034</v>
-      </c>
-      <c r="M60" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13">
-      <c r="A61" t="s">
-        <v>13</v>
-      </c>
-      <c r="B61" t="s">
-        <v>14</v>
-      </c>
-      <c r="C61">
-        <v>2025</v>
-      </c>
-      <c r="D61" t="s">
-        <v>15</v>
-      </c>
-      <c r="E61" t="s">
-        <v>16</v>
-      </c>
-      <c r="F61" t="s">
-        <v>17</v>
-      </c>
-      <c r="G61" t="s">
-        <v>18</v>
-      </c>
-      <c r="H61" t="s">
-        <v>78</v>
-      </c>
-      <c r="I61" t="s">
-        <v>157</v>
-      </c>
-      <c r="J61" t="s">
-        <v>228</v>
-      </c>
-      <c r="K61" t="s">
-        <v>245</v>
-      </c>
-      <c r="L61">
-        <v>2371470</v>
-      </c>
-      <c r="M61" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13">
-      <c r="A62" t="s">
-        <v>13</v>
-      </c>
-      <c r="B62" t="s">
-        <v>14</v>
-      </c>
-      <c r="C62">
-        <v>2025</v>
-      </c>
-      <c r="D62" t="s">
-        <v>15</v>
-      </c>
-      <c r="E62" t="s">
-        <v>16</v>
-      </c>
-      <c r="F62" t="s">
-        <v>17</v>
-      </c>
-      <c r="G62" t="s">
-        <v>18</v>
-      </c>
-      <c r="H62" t="s">
-        <v>79</v>
-      </c>
-      <c r="I62" t="s">
-        <v>158</v>
-      </c>
-      <c r="J62" t="s">
-        <v>229</v>
-      </c>
-      <c r="K62" t="s">
-        <v>248</v>
-      </c>
-      <c r="L62">
-        <v>1113788</v>
-      </c>
-      <c r="M62" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13">
-      <c r="A63" t="s">
-        <v>13</v>
-      </c>
-      <c r="B63" t="s">
-        <v>14</v>
-      </c>
-      <c r="C63">
-        <v>2025</v>
-      </c>
-      <c r="D63" t="s">
-        <v>15</v>
-      </c>
-      <c r="E63" t="s">
-        <v>16</v>
-      </c>
-      <c r="F63" t="s">
-        <v>17</v>
-      </c>
-      <c r="G63" t="s">
-        <v>18</v>
-      </c>
-      <c r="H63" t="s">
-        <v>80</v>
-      </c>
-      <c r="I63" t="s">
-        <v>159</v>
-      </c>
-      <c r="J63" t="s">
-        <v>230</v>
-      </c>
-      <c r="K63" t="s">
-        <v>247</v>
-      </c>
-      <c r="L63">
-        <v>1192214</v>
-      </c>
-      <c r="M63" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13">
-      <c r="A64" t="s">
-        <v>13</v>
-      </c>
-      <c r="B64" t="s">
-        <v>14</v>
-      </c>
-      <c r="C64">
-        <v>2025</v>
-      </c>
-      <c r="D64" t="s">
-        <v>15</v>
-      </c>
-      <c r="E64" t="s">
-        <v>16</v>
-      </c>
-      <c r="F64" t="s">
-        <v>17</v>
-      </c>
-      <c r="G64" t="s">
-        <v>18</v>
-      </c>
-      <c r="H64" t="s">
-        <v>81</v>
-      </c>
-      <c r="I64" t="s">
-        <v>160</v>
-      </c>
-      <c r="J64" t="s">
-        <v>231</v>
-      </c>
-      <c r="K64" t="s">
-        <v>247</v>
-      </c>
-      <c r="L64">
-        <v>3534736</v>
-      </c>
-      <c r="M64" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13">
-      <c r="A65" t="s">
-        <v>13</v>
-      </c>
-      <c r="B65" t="s">
-        <v>14</v>
-      </c>
-      <c r="C65">
-        <v>2025</v>
-      </c>
-      <c r="D65" t="s">
-        <v>15</v>
-      </c>
-      <c r="E65" t="s">
-        <v>16</v>
-      </c>
-      <c r="F65" t="s">
-        <v>17</v>
-      </c>
-      <c r="G65" t="s">
-        <v>18</v>
-      </c>
-      <c r="H65" t="s">
-        <v>82</v>
-      </c>
-      <c r="I65" t="s">
-        <v>161</v>
-      </c>
-      <c r="J65" t="s">
-        <v>232</v>
-      </c>
-      <c r="K65" t="s">
-        <v>249</v>
-      </c>
-      <c r="L65">
-        <v>5694870</v>
-      </c>
-      <c r="M65" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13">
-      <c r="A66" t="s">
-        <v>13</v>
-      </c>
-      <c r="B66" t="s">
-        <v>14</v>
-      </c>
-      <c r="C66">
-        <v>2025</v>
-      </c>
-      <c r="D66" t="s">
-        <v>15</v>
-      </c>
-      <c r="E66" t="s">
-        <v>16</v>
-      </c>
-      <c r="F66" t="s">
-        <v>17</v>
-      </c>
-      <c r="G66" t="s">
-        <v>18</v>
-      </c>
-      <c r="H66" t="s">
-        <v>83</v>
-      </c>
-      <c r="I66" t="s">
-        <v>162</v>
-      </c>
-      <c r="J66" t="s">
-        <v>233</v>
-      </c>
-      <c r="K66" t="s">
-        <v>248</v>
-      </c>
-      <c r="L66">
-        <v>1113788</v>
-      </c>
-      <c r="M66" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13">
-      <c r="A67" t="s">
-        <v>13</v>
-      </c>
-      <c r="B67" t="s">
-        <v>14</v>
-      </c>
-      <c r="C67">
-        <v>2025</v>
-      </c>
-      <c r="D67" t="s">
-        <v>15</v>
-      </c>
-      <c r="E67" t="s">
-        <v>16</v>
-      </c>
-      <c r="F67" t="s">
-        <v>17</v>
-      </c>
-      <c r="G67" t="s">
-        <v>18</v>
-      </c>
-      <c r="H67" t="s">
-        <v>84</v>
-      </c>
-      <c r="I67" t="s">
-        <v>163</v>
-      </c>
-      <c r="J67" t="s">
-        <v>233</v>
-      </c>
-      <c r="K67" t="s">
-        <v>251</v>
-      </c>
-      <c r="L67">
-        <v>1010460</v>
-      </c>
-      <c r="M67" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13">
-      <c r="A68" t="s">
-        <v>13</v>
-      </c>
-      <c r="B68" t="s">
-        <v>14</v>
-      </c>
-      <c r="C68">
-        <v>2025</v>
-      </c>
-      <c r="D68" t="s">
-        <v>15</v>
-      </c>
-      <c r="E68" t="s">
-        <v>16</v>
-      </c>
-      <c r="F68" t="s">
-        <v>17</v>
-      </c>
-      <c r="G68" t="s">
-        <v>18</v>
-      </c>
-      <c r="H68" t="s">
-        <v>85</v>
-      </c>
-      <c r="I68" t="s">
-        <v>164</v>
-      </c>
-      <c r="J68" t="s">
-        <v>234</v>
-      </c>
-      <c r="K68" t="s">
-        <v>253</v>
-      </c>
-      <c r="L68">
-        <v>1095930</v>
-      </c>
-      <c r="M68" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13">
-      <c r="A69" t="s">
-        <v>13</v>
-      </c>
-      <c r="B69" t="s">
-        <v>14</v>
-      </c>
-      <c r="C69">
-        <v>2025</v>
-      </c>
-      <c r="D69" t="s">
-        <v>15</v>
-      </c>
-      <c r="E69" t="s">
-        <v>16</v>
-      </c>
-      <c r="F69" t="s">
-        <v>17</v>
-      </c>
-      <c r="G69" t="s">
-        <v>18</v>
-      </c>
-      <c r="H69" t="s">
-        <v>86</v>
-      </c>
-      <c r="I69" t="s">
-        <v>165</v>
-      </c>
-      <c r="J69" t="s">
-        <v>235</v>
-      </c>
-      <c r="K69" t="s">
-        <v>250</v>
-      </c>
-      <c r="L69">
-        <v>2898565</v>
-      </c>
-      <c r="M69" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13">
-      <c r="A70" t="s">
-        <v>13</v>
-      </c>
-      <c r="B70" t="s">
-        <v>14</v>
-      </c>
-      <c r="C70">
-        <v>2025</v>
-      </c>
-      <c r="D70" t="s">
-        <v>15</v>
-      </c>
-      <c r="E70" t="s">
-        <v>16</v>
-      </c>
-      <c r="F70" t="s">
-        <v>17</v>
-      </c>
-      <c r="G70" t="s">
-        <v>18</v>
-      </c>
-      <c r="H70" t="s">
-        <v>87</v>
-      </c>
-      <c r="I70" t="s">
-        <v>166</v>
-      </c>
-      <c r="J70" t="s">
-        <v>236</v>
-      </c>
-      <c r="K70" t="s">
-        <v>249</v>
-      </c>
-      <c r="L70">
-        <v>1405060</v>
-      </c>
-      <c r="M70" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13">
-      <c r="A71" t="s">
-        <v>13</v>
-      </c>
-      <c r="B71" t="s">
-        <v>14</v>
-      </c>
-      <c r="C71">
-        <v>2025</v>
-      </c>
-      <c r="D71" t="s">
-        <v>15</v>
-      </c>
-      <c r="E71" t="s">
-        <v>16</v>
-      </c>
-      <c r="F71" t="s">
-        <v>17</v>
-      </c>
-      <c r="G71" t="s">
-        <v>18</v>
-      </c>
-      <c r="H71" t="s">
-        <v>88</v>
-      </c>
-      <c r="I71" t="s">
-        <v>167</v>
-      </c>
-      <c r="J71" t="s">
-        <v>237</v>
-      </c>
-      <c r="K71" t="s">
-        <v>246</v>
-      </c>
-      <c r="L71">
-        <v>856086</v>
-      </c>
-      <c r="M71" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13">
-      <c r="A72" t="s">
-        <v>13</v>
-      </c>
-      <c r="B72" t="s">
-        <v>14</v>
-      </c>
-      <c r="C72">
-        <v>2025</v>
-      </c>
-      <c r="D72" t="s">
-        <v>15</v>
-      </c>
-      <c r="E72" t="s">
-        <v>16</v>
-      </c>
-      <c r="F72" t="s">
-        <v>17</v>
-      </c>
-      <c r="G72" t="s">
-        <v>18</v>
-      </c>
-      <c r="H72" t="s">
-        <v>89</v>
-      </c>
-      <c r="I72" t="s">
-        <v>168</v>
-      </c>
-      <c r="J72" t="s">
-        <v>237</v>
-      </c>
-      <c r="K72" t="s">
-        <v>254</v>
-      </c>
-      <c r="L72">
-        <v>1136514</v>
-      </c>
-      <c r="M72" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13">
-      <c r="A73" t="s">
-        <v>13</v>
-      </c>
-      <c r="B73" t="s">
-        <v>14</v>
-      </c>
-      <c r="C73">
-        <v>2025</v>
-      </c>
-      <c r="D73" t="s">
-        <v>15</v>
-      </c>
-      <c r="E73" t="s">
-        <v>16</v>
-      </c>
-      <c r="F73" t="s">
-        <v>17</v>
-      </c>
-      <c r="G73" t="s">
-        <v>18</v>
-      </c>
-      <c r="H73" t="s">
-        <v>90</v>
-      </c>
-      <c r="I73" t="s">
-        <v>169</v>
-      </c>
-      <c r="J73" t="s">
-        <v>238</v>
-      </c>
-      <c r="K73" t="s">
-        <v>252</v>
-      </c>
-      <c r="L73">
-        <v>944294</v>
-      </c>
-      <c r="M73" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13">
-      <c r="A74" t="s">
-        <v>13</v>
-      </c>
-      <c r="B74" t="s">
-        <v>14</v>
-      </c>
-      <c r="C74">
-        <v>2025</v>
-      </c>
-      <c r="D74" t="s">
-        <v>15</v>
-      </c>
-      <c r="E74" t="s">
-        <v>16</v>
-      </c>
-      <c r="F74" t="s">
-        <v>17</v>
-      </c>
-      <c r="G74" t="s">
-        <v>18</v>
-      </c>
-      <c r="H74" t="s">
-        <v>91</v>
-      </c>
-      <c r="I74" t="s">
-        <v>170</v>
-      </c>
-      <c r="J74" t="s">
-        <v>239</v>
-      </c>
-      <c r="K74" t="s">
-        <v>250</v>
-      </c>
-      <c r="L74">
-        <v>2177948</v>
-      </c>
-      <c r="M74" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13">
-      <c r="A75" t="s">
-        <v>13</v>
-      </c>
-      <c r="B75" t="s">
-        <v>14</v>
-      </c>
-      <c r="C75">
-        <v>2025</v>
-      </c>
-      <c r="D75" t="s">
-        <v>15</v>
-      </c>
-      <c r="E75" t="s">
-        <v>16</v>
-      </c>
-      <c r="F75" t="s">
-        <v>17</v>
-      </c>
-      <c r="G75" t="s">
-        <v>18</v>
-      </c>
-      <c r="H75" t="s">
-        <v>92</v>
-      </c>
-      <c r="I75" t="s">
-        <v>171</v>
-      </c>
-      <c r="J75" t="s">
-        <v>240</v>
-      </c>
-      <c r="K75" t="s">
-        <v>246</v>
-      </c>
-      <c r="L75">
-        <v>963692</v>
-      </c>
-      <c r="M75" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13">
-      <c r="A76" t="s">
-        <v>13</v>
-      </c>
-      <c r="B76" t="s">
-        <v>14</v>
-      </c>
-      <c r="C76">
-        <v>2025</v>
-      </c>
-      <c r="D76" t="s">
-        <v>15</v>
-      </c>
-      <c r="E76" t="s">
-        <v>16</v>
-      </c>
-      <c r="F76" t="s">
-        <v>17</v>
-      </c>
-      <c r="G76" t="s">
-        <v>18</v>
-      </c>
-      <c r="H76" t="s">
-        <v>93</v>
-      </c>
-      <c r="I76" t="s">
-        <v>172</v>
-      </c>
-      <c r="J76" t="s">
-        <v>241</v>
-      </c>
-      <c r="K76" t="s">
-        <v>251</v>
-      </c>
-      <c r="L76">
-        <v>1900010</v>
-      </c>
-      <c r="M76" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13">
-      <c r="A77" t="s">
-        <v>13</v>
-      </c>
-      <c r="B77" t="s">
-        <v>14</v>
-      </c>
-      <c r="C77">
-        <v>2025</v>
-      </c>
-      <c r="D77" t="s">
-        <v>15</v>
-      </c>
-      <c r="E77" t="s">
-        <v>16</v>
-      </c>
-      <c r="F77" t="s">
-        <v>17</v>
-      </c>
-      <c r="G77" t="s">
-        <v>18</v>
-      </c>
-      <c r="H77" t="s">
-        <v>94</v>
-      </c>
-      <c r="I77" t="s">
-        <v>173</v>
-      </c>
-      <c r="J77" t="s">
-        <v>242</v>
-      </c>
-      <c r="K77" t="s">
-        <v>248</v>
-      </c>
-      <c r="L77">
-        <v>1111364</v>
-      </c>
-      <c r="M77" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13">
-      <c r="A78" t="s">
-        <v>13</v>
-      </c>
-      <c r="B78" t="s">
-        <v>14</v>
-      </c>
-      <c r="C78">
-        <v>2025</v>
-      </c>
-      <c r="D78" t="s">
-        <v>15</v>
-      </c>
-      <c r="E78" t="s">
-        <v>16</v>
-      </c>
-      <c r="F78" t="s">
-        <v>17</v>
-      </c>
-      <c r="G78" t="s">
-        <v>18</v>
-      </c>
-      <c r="H78" t="s">
-        <v>95</v>
-      </c>
-      <c r="I78" t="s">
-        <v>174</v>
-      </c>
-      <c r="J78" t="s">
-        <v>242</v>
-      </c>
-      <c r="K78" t="s">
-        <v>246</v>
-      </c>
-      <c r="L78">
-        <v>909664</v>
-      </c>
-      <c r="M78" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13">
-      <c r="A79" t="s">
-        <v>13</v>
-      </c>
-      <c r="B79" t="s">
-        <v>14</v>
-      </c>
-      <c r="C79">
-        <v>2025</v>
-      </c>
-      <c r="D79" t="s">
-        <v>15</v>
-      </c>
-      <c r="E79" t="s">
-        <v>16</v>
-      </c>
-      <c r="F79" t="s">
-        <v>17</v>
-      </c>
-      <c r="G79" t="s">
-        <v>18</v>
-      </c>
-      <c r="H79" t="s">
-        <v>96</v>
-      </c>
-      <c r="I79" t="s">
         <v>175</v>
-      </c>
-      <c r="J79" t="s">
-        <v>243</v>
-      </c>
-      <c r="K79" t="s">
-        <v>245</v>
-      </c>
-      <c r="L79">
-        <v>2378588</v>
-      </c>
-      <c r="M79" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13">
-      <c r="A80" t="s">
-        <v>13</v>
-      </c>
-      <c r="B80" t="s">
-        <v>14</v>
-      </c>
-      <c r="C80">
-        <v>2025</v>
-      </c>
-      <c r="D80" t="s">
-        <v>15</v>
-      </c>
-      <c r="E80" t="s">
-        <v>16</v>
-      </c>
-      <c r="F80" t="s">
-        <v>17</v>
-      </c>
-      <c r="G80" t="s">
-        <v>18</v>
-      </c>
-      <c r="H80" t="s">
-        <v>97</v>
-      </c>
-      <c r="I80" t="s">
-        <v>176</v>
-      </c>
-      <c r="J80" t="s">
-        <v>244</v>
-      </c>
-      <c r="K80" t="s">
-        <v>247</v>
-      </c>
-      <c r="L80">
-        <v>1040000</v>
-      </c>
-      <c r="M80" t="s">
-        <v>257</v>
       </c>
     </row>
   </sheetData>
